--- a/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_Unif_bias_Abs_deltax_23-Nov-2023.xlsx
+++ b/MATLAB_codes/Testing_endogeneity/Results/Excels/usual_suspects_fullpairwise_Unif_bias_Abs_deltax_23-Nov-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kristof\Desktop\Endogeneity\MATLAB_codes\Testing_endogeneity\Results\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B188A6D-C1EE-42DF-91A0-1F08DC8FE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D1D60C9-BBD6-415D-BBCB-DD6EE1B54629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10575" yWindow="2625" windowWidth="7500" windowHeight="7875" xr2:uid="{260A751C-86E0-424B-BD9B-D423BF42DAD3}"/>
   </bookViews>
